--- a/config/2#monster#怪物.xlsx
+++ b/config/2#monster#怪物.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="1#Category#分类" sheetId="1" r:id="rId1"/>
-    <sheet name="2#Minio#喽啰" sheetId="2" r:id="rId2"/>
-    <sheet name="3#Boss#BOSS" sheetId="3" r:id="rId3"/>
-    <sheet name="4#WorldBoss#世界BOSS" sheetId="4" r:id="rId4"/>
-    <sheet name="HpSkill#血量触发技能" sheetId="6" r:id="rId5"/>
-    <sheet name="HpSkillList#血量触发技能列表" sheetId="8" r:id="rId6"/>
-    <sheet name="TimerSkillList#时间触发技能列表" sheetId="9" r:id="rId7"/>
-    <sheet name="Type#怪物类型" sheetId="7" r:id="rId8"/>
+    <sheet name="2#Monster#普通怪物" sheetId="2" r:id="rId2"/>
+    <sheet name="3#WorldBoss#世界BOSS" sheetId="4" r:id="rId3"/>
+    <sheet name="HpSkill#血量触发技能" sheetId="6" r:id="rId4"/>
+    <sheet name="HpSkillList#血量触发技能列表" sheetId="8" r:id="rId5"/>
+    <sheet name="TimerSkillList#时间触发技能列表" sheetId="9" r:id="rId6"/>
+    <sheet name="Type#怪物类型" sheetId="7" r:id="rId7"/>
+    <sheet name="Identity#身份" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,47 +218,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>喽啰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpSkillList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimerSkillList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight.FixAttributeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight.FixAttributeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性，格式{"FixAttribute": [{"type": "HP","value": 100},{"type": "ATK","value": 100},{"type": "DEF","value": 100}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONSTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>WORLD_BOSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>喽啰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>世界BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpSkillList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimerSkillList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fight.FixAttributeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fight.FixAttributeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fight.FixAttributeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性，格式{"FixAttribute": [{"type": "HP","value": 100},{"type": "ATK","value": 100},{"type": "DEF","value": 100}]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,109 +620,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -722,20 +662,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -754,8 +694,29 @@
       <c r="F2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -774,8 +735,29 @@
       <c r="F3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -792,10 +774,31 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -812,7 +815,28 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -823,125 +847,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -966,8 +889,29 @@
       <c r="H2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -987,13 +931,34 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="O3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1010,16 +975,37 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1036,12 +1022,33 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="O5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1052,11 +1059,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1105,7 +1112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -1151,7 +1158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -1173,7 +1180,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
@@ -1189,6 +1196,51 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1207,42 +1259,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
